--- a/PLSstatic/PLSstatic_predicted_factors_matrix_8.xlsx
+++ b/PLSstatic/PLSstatic_predicted_factors_matrix_8.xlsx
@@ -443,66 +443,66 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.454701162732885</v>
+        <v>-1.454701162732887</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.243812525668362</v>
+        <v>-4.796697199710548</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.5354128534328436</v>
+        <v>-0.5354128534328406</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.7107374841698283</v>
+        <v>0.7871771828006674</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.848056287040997</v>
+        <v>0.8480562870409967</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7246963093394397</v>
+        <v>-2.641796420480595</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.7314811019627382</v>
+        <v>0.7314811019627357</v>
       </c>
       <c r="B5" t="n">
-        <v>0.671093524133392</v>
+        <v>0.6500669003362431</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.8064437839643684</v>
+        <v>-0.8064437839643699</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.6832572602071246</v>
+        <v>-2.271224825824301</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.07615172681778766</v>
+        <v>-0.0761517268177867</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01872123792468628</v>
+        <v>-0.5544581549475408</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.7851717713428626</v>
+        <v>0.7851717713428624</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6803064625611539</v>
+        <v>0.7866806101569737</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.3211789349904068</v>
+        <v>0.321178934990406</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3363833947319531</v>
+        <v>-0.09485569883604175</v>
       </c>
     </row>
   </sheetData>
